--- a/medicine/Psychotrope/Brauhaus_Faust/Brauhaus_Faust.xlsx
+++ b/medicine/Psychotrope/Brauhaus_Faust/Brauhaus_Faust.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauhaus Faust OHG est une brasserie à Miltenberg, en Basse-Franconie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1654 par Kilian Francois Mathieu Servantaine, originaire de Suman, dans la région de Liège (la Belgique actuelle). En 1825, Georg Anton Krug reprend la brasserie. Il émigre à Milwaukee aux États-Unis en 1850 ; son fils August Krug fondera la Joseph Schlitz Brewing Company. En 1895, le maître-brasseur Johann Adalbert Faust devient l'unique propriétaire de la brasserie. La société est rebaptisée en juillet 1993 Löwenbrauerei Miltenberg in Brauhaus Faust.
 Depuis 1996, la quatrième génération de Faust, Cornelius Faust et Johannes Faust, est responsable de la brasserie.
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Spécialités
 Pils
